--- a/内部設計/資料/円弧配列クラス構成.xlsx
+++ b/内部設計/資料/円弧配列クラス構成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="515">
   <si>
     <t>処理の流れ</t>
     <rPh sb="0" eb="2">
@@ -1862,10 +1862,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EditingCharacterInfoCls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォント区分1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1946,16 +1942,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>刻印文字情報配列</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CharacterInfoCls</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1975,10 +1961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CharacterInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>区分番号設定</t>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
@@ -2310,10 +2292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LabelingInfoCls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2455,6 +2433,355 @@
   </si>
   <si>
     <t>SetArrangement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表情報クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字数</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditingCharacterInfoCls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字 DWGリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字 DWGリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字情報リスト</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;List&lt;string&gt;&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字数分のリスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditingCharacterNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LabelGroupInfoCls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;LabelGroupInfoCls&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリング配置情報クラスリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LabelingInfoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditingCharacterDwgList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterDwgList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterInfoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetEditingCharacterNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetLabelingInfoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetEditingCharacterDwgList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetCharacterDwgList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字数設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリング配置情報クラスリスト設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字 DWGリスト設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字 DWGリスト設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Employee number</t>
+  </si>
+  <si>
+    <t>Registant</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Ply</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>配置編集文字数</t>
+  </si>
+  <si>
+    <t>図面登録情報クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawingRegistInfoCls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawingSymbol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawingNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ControlNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TireType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リビジョン番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務管理番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ種別</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面番号</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ATB"等</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面シンボル</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外径</t>
+    <rPh sb="0" eb="2">
+      <t>ガイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RevisionNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PatternType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OuterDiameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SectionWidth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RimDiameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SizeCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlantCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場コード</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録部署</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接尾</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライ</t>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リム幅</t>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断面幅</t>
+  </si>
+  <si>
+    <t>EditingCharacterNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditingCharacterFontNameList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字フォント名リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2658,7 +2985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2704,15 +3031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2733,6 +3051,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14485,7 +14815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14525,7 +14855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -14544,8 +14874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14571,30 +14901,30 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -14605,36 +14935,36 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -14643,10 +14973,10 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -14657,10 +14987,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -14671,10 +15001,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -14691,146 +15021,146 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="12"/>
@@ -14845,56 +15175,56 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -14903,50 +15233,50 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="12"/>
@@ -14961,30 +15291,30 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -14993,10 +15323,10 @@
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -15005,10 +15335,10 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -15017,10 +15347,10 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -15029,11 +15359,11 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>343</v>
+      <c r="C51" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>86</v>
@@ -15041,22 +15371,22 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>344</v>
+      <c r="C52" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="13" t="s">
@@ -15065,42 +15395,42 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>69</v>
+        <v>475</v>
       </c>
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="23"/>
+      <c r="D56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -15109,88 +15439,88 @@
       <c r="E57" s="12"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="12"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>345</v>
+      <c r="C62" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="19"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
     </row>
@@ -15203,134 +15533,134 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18" t="s">
+      <c r="C70" s="23"/>
+      <c r="D70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="18" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="18" t="s">
         <v>105</v>
       </c>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E76" s="12"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -15339,78 +15669,78 @@
       <c r="E80" s="12"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="12"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D84" s="21"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="12"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="21"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="14"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="21"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="12"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="21"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B88" s="19"/>
-      <c r="C88" s="23"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
@@ -15423,98 +15753,98 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="18" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E93" s="12"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="18" t="s">
         <v>139</v>
       </c>
       <c r="E94" s="12"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E95" s="12"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E96" s="12"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18" t="s">
+      <c r="C98" s="23"/>
+      <c r="D98" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="13" t="s">
@@ -15523,49 +15853,49 @@
       <c r="E99" s="12"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="19"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="12"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D101" s="21"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="12"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D102" s="21"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="12"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D103" s="21"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B104" s="21"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="21"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="12"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.4">
@@ -15577,129 +15907,129 @@
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="18" t="s">
+      <c r="C108" s="23"/>
+      <c r="D108" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="19"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="12"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18" t="s">
+      <c r="C111" s="23"/>
+      <c r="D111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D113" s="19"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="12"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D114" s="21"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="12"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D115" s="21"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="12"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D116" s="21"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="12"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D117" s="21"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="12"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D118" s="21"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="12"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D119" s="21"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="12"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.4">
@@ -15711,104 +16041,99 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="18" t="s">
+      <c r="C123" s="23"/>
+      <c r="D123" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B124" s="19"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="19"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="18" t="s">
+      <c r="C126" s="23"/>
+      <c r="D126" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="12"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D128" s="19"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="12"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="12"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="12"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B131" s="21"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="21"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B125:E125"/>
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="B92:C92"/>
@@ -15816,6 +16141,11 @@
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B107:E107"/>
     <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B125:E125"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B32:E32"/>
@@ -15828,14 +16158,14 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15845,17 +16175,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E153"/>
+  <dimension ref="B2:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144:E153"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
     <col min="4" max="4" width="34.125" style="10" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="10" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
@@ -15874,30 +16204,30 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>178</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -15908,10 +16238,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -15922,10 +16252,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -15934,10 +16264,10 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -15948,30 +16278,30 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D11" s="12"/>
@@ -15980,10 +16310,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D12" s="12"/>
@@ -15992,10 +16322,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="12"/>
@@ -16004,10 +16334,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>198</v>
       </c>
       <c r="D14" s="12"/>
@@ -16024,30 +16354,30 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -16056,10 +16386,10 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>206</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -16068,30 +16398,30 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -16102,10 +16432,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>208</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -16120,34 +16450,34 @@
         <v>57</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -16158,11 +16488,11 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>303</v>
+      <c r="C30" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>215</v>
@@ -16170,11 +16500,11 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>304</v>
+      <c r="C31" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>215</v>
@@ -16182,10 +16512,10 @@
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -16194,10 +16524,10 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -16206,10 +16536,10 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -16218,10 +16548,10 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>218</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -16230,10 +16560,10 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>219</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -16242,10 +16572,10 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -16254,10 +16584,10 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>221</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -16266,10 +16596,10 @@
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
         <v>222</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -16278,10 +16608,10 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D40" s="12" t="s">
@@ -16290,10 +16620,10 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="17" t="s">
         <v>224</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -16302,10 +16632,10 @@
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -16314,10 +16644,10 @@
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="17" t="s">
         <v>226</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -16326,10 +16656,10 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -16338,10 +16668,10 @@
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>228</v>
       </c>
       <c r="D45" s="12" t="s">
@@ -16350,10 +16680,10 @@
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>229</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -16362,10 +16692,10 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -16374,10 +16704,10 @@
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>231</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -16386,10 +16716,10 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D49" s="12" t="s">
@@ -16398,10 +16728,10 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -16410,36 +16740,36 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D54" s="12"/>
@@ -16448,10 +16778,10 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="17" t="s">
         <v>259</v>
       </c>
       <c r="D55" s="12"/>
@@ -16460,10 +16790,10 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D56" s="12"/>
@@ -16472,10 +16802,10 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="17" t="s">
         <v>261</v>
       </c>
       <c r="D57" s="12"/>
@@ -16484,10 +16814,10 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>262</v>
       </c>
       <c r="D58" s="12"/>
@@ -16496,10 +16826,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D59" s="12"/>
@@ -16508,10 +16838,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D60" s="12"/>
@@ -16520,10 +16850,10 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D61" s="12"/>
@@ -16532,10 +16862,10 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>266</v>
       </c>
       <c r="D62" s="12"/>
@@ -16544,10 +16874,10 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="17" t="s">
         <v>267</v>
       </c>
       <c r="D63" s="12"/>
@@ -16556,10 +16886,10 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="17" t="s">
         <v>268</v>
       </c>
       <c r="D64" s="12"/>
@@ -16568,10 +16898,10 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D65" s="12"/>
@@ -16580,10 +16910,10 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="17" t="s">
         <v>270</v>
       </c>
       <c r="D66" s="12"/>
@@ -16592,10 +16922,10 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="17" t="s">
         <v>271</v>
       </c>
       <c r="D67" s="12"/>
@@ -16604,10 +16934,10 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D68" s="12"/>
@@ -16616,10 +16946,10 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="17" t="s">
         <v>273</v>
       </c>
       <c r="D69" s="12"/>
@@ -16628,10 +16958,10 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="17" t="s">
         <v>274</v>
       </c>
       <c r="D70" s="12"/>
@@ -16640,10 +16970,10 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="17" t="s">
         <v>275</v>
       </c>
       <c r="D71" s="12"/>
@@ -16652,10 +16982,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="12"/>
@@ -16664,10 +16994,10 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="17" t="s">
         <v>277</v>
       </c>
       <c r="D73" s="12"/>
@@ -16676,10 +17006,10 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="12"/>
@@ -16688,10 +17018,10 @@
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="17" t="s">
         <v>279</v>
       </c>
       <c r="D75" s="12"/>
@@ -16704,34 +17034,34 @@
         <v>59</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>212</v>
       </c>
       <c r="D80" s="12" t="s">
@@ -16742,11 +17072,11 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="16" t="s">
         <v>305</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>215</v>
@@ -16754,11 +17084,11 @@
       <c r="E81" s="12"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B82" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C82" s="22" t="s">
+      <c r="B82" s="18" t="s">
         <v>307</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>215</v>
@@ -16766,25 +17096,25 @@
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B83" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="18" t="s">
         <v>310</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>309</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B84" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>322</v>
+      <c r="B84" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>188</v>
@@ -16792,80 +17122,80 @@
       <c r="E84" s="12"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B86" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="D86" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B86" s="21" t="s">
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B87" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C87" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E86" s="12"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B87" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>317</v>
-      </c>
       <c r="D87" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B88" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>320</v>
+      <c r="B88" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B91" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C91" s="20" t="s">
+      <c r="B91" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D91" s="12"/>
@@ -16874,11 +17204,11 @@
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B92" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>326</v>
+      <c r="B92" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
@@ -16886,11 +17216,11 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B93" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>327</v>
+      <c r="B93" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
@@ -16898,11 +17228,11 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B94" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>328</v>
+      <c r="B94" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="12" t="s">
@@ -16910,11 +17240,11 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B95" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>329</v>
+      <c r="B95" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="12" t="s">
@@ -16922,11 +17252,11 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B96" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>330</v>
+      <c r="B96" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="12" t="s">
@@ -16934,11 +17264,11 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B97" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>331</v>
+      <c r="B97" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="12" t="s">
@@ -16946,11 +17276,11 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B98" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>332</v>
+      <c r="B98" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="12" t="s">
@@ -16958,11 +17288,11 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B99" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>333</v>
+      <c r="B99" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="12" t="s">
@@ -16971,38 +17301,38 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="18" t="s">
+      <c r="C103" s="23"/>
+      <c r="D103" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B104" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>347</v>
+      <c r="B104" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>215</v>
@@ -17010,35 +17340,35 @@
       <c r="E104" s="12"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B105" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D105" s="21" t="s">
+      <c r="B105" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B106" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="E105" s="12"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B106" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>357</v>
+      <c r="C106" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B107" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>350</v>
+      <c r="B107" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>215</v>
@@ -17046,11 +17376,11 @@
       <c r="E107" s="12"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B108" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>351</v>
+      <c r="B108" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>215</v>
@@ -17058,35 +17388,35 @@
       <c r="E108" s="12"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B109" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>357</v>
+      <c r="B109" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="E109" s="12"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B110" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>357</v>
+      <c r="B110" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="E110" s="12"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B111" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>354</v>
+      <c r="B111" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>215</v>
@@ -17094,67 +17424,67 @@
       <c r="E111" s="12"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B113" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B114" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C114" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B115" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B116" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="23"/>
+      <c r="D116" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B117" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E112" s="12"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B113" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E113" s="12"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B114" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E114" s="12"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B115" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B116" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12" t="s">
@@ -17162,35 +17492,35 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B118" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D118" s="21"/>
+      <c r="B118" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D118" s="18"/>
       <c r="E118" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B119" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D119" s="21"/>
+      <c r="B119" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" s="18"/>
       <c r="E119" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B120" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>373</v>
+      <c r="B120" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12" t="s">
@@ -17198,11 +17528,11 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B121" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>374</v>
+      <c r="B121" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
@@ -17210,35 +17540,35 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B122" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D122" s="21"/>
+      <c r="B122" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="18"/>
       <c r="E122" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B123" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="D123" s="21"/>
+      <c r="B123" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" s="18"/>
       <c r="E123" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B124" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>377</v>
+      <c r="B124" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
@@ -17246,11 +17576,11 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>378</v>
+      <c r="B125" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="12" t="s">
@@ -17258,11 +17588,11 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B126" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>379</v>
+      <c r="B126" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="12" t="s">
@@ -17270,51 +17600,51 @@
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B127" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D127" s="21"/>
+      <c r="B127" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D127" s="18"/>
       <c r="E127" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B129" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="18" t="s">
+      <c r="C131" s="23"/>
+      <c r="D131" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B132" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>391</v>
+      <c r="B132" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>388</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>215</v>
@@ -17322,35 +17652,35 @@
       <c r="E132" s="12"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B133" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>404</v>
+      <c r="B133" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="E133" s="12"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B134" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D134" s="19" t="s">
+      <c r="B134" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D134" s="16" t="s">
         <v>188</v>
       </c>
       <c r="E134" s="12"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B135" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>394</v>
+      <c r="B135" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>215</v>
@@ -17358,109 +17688,109 @@
       <c r="E135" s="12"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B137" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B138" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B139" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B140" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D136" s="19" t="s">
+      <c r="C140" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B141" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E136" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B137" s="19" t="s">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B142" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B143" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B144" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E137" s="12"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B138" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B139" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E139" s="12"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B140" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E140" s="12"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B141" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B142" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B143" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B144" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>420</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="12" t="s">
@@ -17468,120 +17798,578 @@
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B145" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="D145" s="21"/>
+      <c r="B145" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D145" s="18"/>
       <c r="E145" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B146" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D146" s="21"/>
+      <c r="B146" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D146" s="18"/>
       <c r="E146" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B147" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D147" s="21"/>
+      <c r="B147" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D147" s="18"/>
       <c r="E147" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B148" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="21"/>
+      <c r="B148" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="18"/>
       <c r="E148" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B149" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="19"/>
+      <c r="B149" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D149" s="16"/>
       <c r="E149" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B150" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D150" s="21"/>
+      <c r="B150" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="18"/>
       <c r="E150" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B151" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D151" s="21"/>
+      <c r="B151" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="18"/>
       <c r="E151" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B152" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D152" s="21"/>
+      <c r="B152" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" s="18"/>
       <c r="E152" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B153" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D153" s="21"/>
+      <c r="B153" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D153" s="18"/>
       <c r="E153" s="12" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B155" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B156" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B157" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="23"/>
+      <c r="D157" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B158" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B159" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B160" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B161" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B162" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B163" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="23"/>
+      <c r="D163" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B164" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B165" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B166" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B167" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B169" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B170" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B171" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="23"/>
+      <c r="D171" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B172" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B173" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B174" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B175" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B176" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B177" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B178" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B179" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B180" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B181" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B182" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B183" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B184" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B185" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B186" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B187" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B188" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B189" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B190" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B191" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B192" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B193" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B194" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B195" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E195" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B142:E142"/>
+  <mergeCells count="30">
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:C79"/>
@@ -17589,18 +18377,26 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
